--- a/petr_options_chain.xlsx
+++ b/petr_options_chain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.hun\Documents\repos\medium_interpolation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB9F74F-6FC6-4537-A780-F57BE64F6232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E114D4-27E7-4317-9D75-51AE52E7E06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A8FEB55F-B0C4-4939-BE79-95FD16234F12}"/>
   </bookViews>
@@ -2869,9 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6AF57C-D90D-4431-975E-6889A5E2EFC2}">
   <dimension ref="A1:J805"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
